--- a/timesheet_doc/demo databasebo sung.xlsx.xlsx
+++ b/timesheet_doc/demo databasebo sung.xlsx.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>USER</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>TEAM_MEMBER</t>
+  </si>
+  <si>
+    <t>id (pk)</t>
   </si>
   <si>
     <t>id</t>
@@ -52,13 +55,13 @@
     <t>team_id</t>
   </si>
   <si>
-    <t>password</t>
+    <t>password_hash</t>
   </si>
   <si>
     <t>point</t>
   </si>
   <si>
-    <t>worktime</t>
+    <t>work_time</t>
   </si>
   <si>
     <t>description</t>
@@ -100,7 +103,7 @@
     <t>process_id</t>
   </si>
   <si>
-    <t>email</t>
+    <t>email (unique)</t>
   </si>
   <si>
     <t>birthday</t>
@@ -182,7 +185,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="18.13"/>
+    <col customWidth="1" min="1" max="1" width="24.75"/>
+    <col customWidth="1" min="2" max="2" width="18.13"/>
     <col customWidth="1" min="3" max="3" width="26.5"/>
     <col customWidth="1" min="4" max="10" width="18.13"/>
     <col customWidth="1" min="11" max="11" width="23.13"/>
@@ -260,28 +264,28 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" ht="24.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -301,27 +305,27 @@
     </row>
     <row r="4" ht="24.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -340,28 +344,28 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" ht="24.75" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
+      <c r="A5" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -381,27 +385,27 @@
     </row>
     <row r="6" ht="24.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -421,25 +425,25 @@
     </row>
     <row r="7" ht="24.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -459,15 +463,15 @@
     </row>
     <row r="8" ht="24.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -493,15 +497,15 @@
     </row>
     <row r="9" ht="24.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -526,16 +530,16 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
+      <c r="A10" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -561,13 +565,13 @@
     </row>
     <row r="11" ht="24.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -593,7 +597,7 @@
     </row>
     <row r="12" ht="24.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -623,7 +627,7 @@
     </row>
     <row r="13" ht="24.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -653,7 +657,7 @@
     </row>
     <row r="14" ht="24.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -683,7 +687,7 @@
     </row>
     <row r="15" ht="24.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
